--- a/PerpetHealthCheckIntro.xlsx
+++ b/PerpetHealthCheckIntro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpro/Dropbox/Equal/github/typeform/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpro/Dropbox/Equal/git-perdev-dev/equal-survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82576928-6C90-A34F-B013-F2192001B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53FEEDC-CD38-C54B-B89E-28C895A8A105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="540" windowWidth="21600" windowHeight="20400" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
+    <workbookView xWindow="25820" yWindow="1140" windowWidth="41540" windowHeight="21780" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="194">
   <si>
     <t>Question</t>
   </si>
@@ -2093,9 +2093,6 @@
     <t>Start Next Phase</t>
   </si>
   <si>
-    <t>SET (@foldEar)</t>
-  </si>
-  <si>
     <t>AnswerChoices</t>
   </si>
   <si>
@@ -2202,57 +2199,17 @@
     <t>SET (@gender)</t>
   </si>
   <si>
-    <t>SET (@weight)</t>
-  </si>
-  <si>
     <t>SET (@age)</t>
-  </si>
-  <si>
-    <t>SET(@snack)</t>
   </si>
   <si>
     <t>APICALL(https://api.equal.pet/sign-service/v1/disease?is_main=true&amp;limit=500)
 EXTRACT(data.content[*].(id,name))</t>
   </si>
   <si>
-    <t>SET (@name)</t>
-  </si>
-  <si>
-    <t>SET (@neutralization_code)</t>
-  </si>
-  <si>
-    <t>SET (@main_act_place_code)</t>
-  </si>
-  <si>
-    <t>SET(@body_form_code)</t>
-  </si>
-  <si>
-    <t>SET (@relationship_code)</t>
-  </si>
-  <si>
     <t>SET (@disease_id)</t>
   </si>
   <si>
-    <t>SET (@disease_treat_code)</t>
-  </si>
-  <si>
-    <t>SET (@appetite_change_code)</t>
-  </si>
-  <si>
-    <t>SET (@feed_amount_code)</t>
-  </si>
-  <si>
-    <t>SET (@drinking_amount_code)</t>
-  </si>
-  <si>
     <t>SET (@allergy_id[])</t>
-  </si>
-  <si>
-    <t>SET (@walk_code)</t>
-  </si>
-  <si>
-    <t>M: 남자아이
-F: 여자아이</t>
   </si>
   <si>
     <t>{@name}의 품종은 무엇인가요?</t>
@@ -2281,28 +2238,6 @@
 cat: 고양이</t>
   </si>
   <si>
-    <t>SET (@type)</t>
-  </si>
-  <si>
-    <t>0: 병원에 진단 및 처방에 따라 치료하고 있어요
-1: 병원에서 진단만 받았어요</t>
-  </si>
-  <si>
-    <t>0: 줄었어요
-1: 비슷해요
-2: 늘었어요</t>
-  </si>
-  <si>
-    <t>0: 평소보다 활기차졌거나, 특별히 변화하지 않았어요
-1: 평소보다 조금 기운이 없어보여요
-2: 눈에 띄게 기력이 없어요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0: 네
-1: 아니오. 하지만 할 예정이에요
-2: 아니오. 앞으로도 계획이 없어요   </t>
-  </si>
-  <si>
     <t>APICALL(https://api.equal.pet/sign-service/v1/breeds?type={@type}&amp;limit=500)
 EXTRACT(data.content[*].(id, name))</t>
   </si>
@@ -2310,48 +2245,10 @@
     <t>Multichoice - Single - Vertical</t>
   </si>
   <si>
-    <t>0: 하루 1번
-1: 하루 2번
-2: 하루 3번 이상
-3: 매일 하지는 않아요</t>
-  </si>
-  <si>
-    <t>0: 아니요.
-1: 네, 2마리가 함께 살고 있어요.
-2: 네, 3마리 이상이 함께 살고 있어요.</t>
-  </si>
-  <si>
-    <t>0: 실내 - 아파트, 빌라
-1: 실내 - 마당 있는 주택
-2: 실외 - 분리 거주 (마당 등)
-3: 실내 - 마당 있는 주택</t>
-  </si>
-  <si>
-    <t>0: 병원에서 진단을 받았어요.
-1: 병원에서 진단받은 적은 없지만, 의심되는 상황이 있었어요.</t>
-  </si>
-  <si>
     <t>APICALL(https://api.equal.pet/sign-service/v1/allergy?limit=500)
 EXTRACT(data.content[*].(id, name))</t>
   </si>
   <si>
-    <t>0: 동물병원 추천 또는 포장지에 적힌 정량만 줘요
-1: 동물병원 추천 또는 포장지에 적힌 정량보다 더 줘요
-2: 체중 감량이 필요하지는 않지만 동물병원 추천 또는 포장지에 적힌 정량보다 덜 줘요
-3: 체중 감량이 필요한 것 같아서 일부러 적게 주고 있어요
-4: 정량은 잘 모르지만 대략 정해서 주고 있어요
-5: 혼자 양을 조절해서 먹기 때문에 다 먹으면 채우고 있어서 잘 모르겠어요</t>
-  </si>
-  <si>
-    <t>0: 물을 잘 마시지 않는 것 같아요. 물그릇에 담긴 물이 잘 줄어들지 않아요
-1: 물그릇에 있는 물을 잘 마시지만, 추가로 더 달라고 조르지는 않아요
-2: 물그릇에 있는 물을 다 마시고, 부족하면 더 달라고 졸라요
-3: 과하다 싶을 정도로 계속 물을 달라고 졸라요</t>
-  </si>
-  <si>
-    <t>SET (@conditions_code)</t>
-  </si>
-  <si>
     <t>Y: 네
 N: 아니요</t>
   </si>
@@ -2365,22 +2262,129 @@
     <t>알레르기 성택해주세요 (중복 선택 가능)</t>
   </si>
   <si>
-    <t>SET (@how_to_know_allergy_code)
-IF (@type==dog) THEN (GOTO: 21) ELSE (GOTO: 24)</t>
-  </si>
-  <si>
     <t>IF (#Y) THEN (GOTO: 11) ELSE (GOTO: 13)</t>
-  </si>
-  <si>
-    <t>0: 저체중 - 많이 말랐어요 - IF(@type==cat) THEN IMG(bsc_cat01.imageset/bsc_cat01.png) ELSE IMG(bsc_dog01.imageset/bsc_dog01.png)
-1: 약간 저체중 - 마른 편이에요 - IF(@type==cat) THEN IMG(bsc_cat02.imageset/bsc_cat02.png) ELSE IMG(bsc_dog02.imageset/bsc_dog02.png)
-2 : 정상 - 딱 보기 좋아요 - IF(@type==cat) THEN IMG(bsc_cat03.imageset/bsc_cat03.png) ELSE IMG(bsc_dog03.imageset/bsc_dog03.png)
-3 : 준비만 - 조금 통통해요 - IF(@type==cat) THEN IMG(bsc_cat04.imageset/bsc_cat04.png) ELSE IMG(bsc_dog04.imageset/bsc_dog04.png)
-4 : 고도비만 - 뚱뚱해요 - IF(@type==cat) THEN IMG(bsc_cat05.imageset/bsc_cat05.png) ELSE IMG(bsc_dog05.imageset/bsc_dog05.png)</t>
   </si>
   <si>
     <t>IF (#Y) THEN (GOTO: 19)
 IF (@type==dog) THEN (GOTO: 21) ELSE (GOTO: 24)</t>
+  </si>
+  <si>
+    <t>SET (@pet_type)</t>
+  </si>
+  <si>
+    <t>SET (@pet_name)</t>
+  </si>
+  <si>
+    <t>SET (@body_weight)</t>
+  </si>
+  <si>
+    <t>SET (@neutering_surgery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performed: 네
+planned: 아니오. 하지만 할 예정이에요
+not_planned: 아니오. 앞으로도 계획이 없어요   </t>
+  </si>
+  <si>
+    <t>SET(@body_shape)</t>
+  </si>
+  <si>
+    <t>underweight_severe: 저체중 - 많이 말랐어요 - IF(@type==cat) THEN IMG(bsc_cat01.imageset/bsc_cat01.png) ELSE IMG(bsc_dog01.imageset/bsc_dog01.png)
+underweight_slight: 약간 저체중 - 마른 편이에요 - IF(@type==cat) THEN IMG(bsc_cat02.imageset/bsc_cat02.png) ELSE IMG(bsc_dog02.imageset/bsc_dog02.png)
+normal: 정상 - 딱 보기 좋아요 - IF(@type==cat) THEN IMG(bsc_cat03.imageset/bsc_cat03.png) ELSE IMG(bsc_dog03.imageset/bsc_dog03.png)
+overweight_slight : 준비만 - 조금 통통해요 - IF(@type==cat) THEN IMG(bsc_cat04.imageset/bsc_cat04.png) ELSE IMG(bsc_dog04.imageset/bsc_dog04.png)
+obese_severe: 고도비만 - 뚱뚱해요 - IF(@type==cat) THEN IMG(bsc_cat05.imageset/bsc_cat05.png) ELSE IMG(bsc_dog05.imageset/bsc_dog05.png)</t>
+  </si>
+  <si>
+    <t>SET (@energetic)</t>
+  </si>
+  <si>
+    <t>stable: 평소보다 활기차졌거나, 특별히 변화하지 않았어요
+slightly_decreased: 평소보다 조금 기운이 없어보여요
+significantly_decreased: 눈에 띄게 기력이 없어요</t>
+  </si>
+  <si>
+    <t>SET (@appetite)</t>
+  </si>
+  <si>
+    <t>decreased: 줄었어요
+unchanged: 비슷해요
+increased: 늘었어요</t>
+  </si>
+  <si>
+    <t>SET (@pet_food)</t>
+  </si>
+  <si>
+    <t>recommended_amount: 동물병원 추천 또는 포장지에 적힌 정량만 줘요
+more_than_recommended: 동물병원 추천 또는 포장지에 적힌 정량보다 더 줘요
+less_than_recommended: 체중 감량이 필요하지는 않지만 동물병원 추천 또는 포장지에 적힌 정량보다 덜 줘요
+less_for_weight_loss: 체중 감량이 필요한 것 같아서 일부러 적게 주고 있어요
+approximate_amount: 정량은 잘 모르지만 대략 정해서 주고 있어요
+self_regulated: 혼자 양을 조절해서 먹기 때문에 다 먹으면 채우고 있어서 잘 모르겠어요</t>
+  </si>
+  <si>
+    <t>SET(@treat)</t>
+  </si>
+  <si>
+    <t>yes: 네
+no: 아니요</t>
+  </si>
+  <si>
+    <t>SET (@water_intake)</t>
+  </si>
+  <si>
+    <t>low: 물을 잘 마시지 않는 것 같아요. 물그릇에 담긴 물이 잘 줄어들지 않아요
+normal: 물그릇에 있는 물을 잘 마시지만, 추가로 더 달라고 조르지는 않아요
+high: 물그릇에 있는 물을 다 마시고, 부족하면 더 달라고 졸라요
+excessive: 과하다 싶을 정도로 계속 물을 달라고 졸라요</t>
+  </si>
+  <si>
+    <t>diagnosed: 병원에서 진단을 받았어요.
+suspected: 병원에서 진단받은 적은 없지만, 의심되는 상황이 있었어요.</t>
+  </si>
+  <si>
+    <t>SET (@allergy_detect)
+IF (@type==dog) THEN (GOTO: 21) ELSE (GOTO: 24)</t>
+  </si>
+  <si>
+    <t>SET (@multi_animal_environment)</t>
+  </si>
+  <si>
+    <t>no: 아니요.
+two_animal: 네, 2마리가 함께 살고 있어요.
+more_than_three_animal: 네, 3마리 이상이 함께 살고 있어요.</t>
+  </si>
+  <si>
+    <t>SET (@living_space)</t>
+  </si>
+  <si>
+    <t>indoor_apartment: 실내 - 아파트, 빌라
+indoor_with_yard: 실내 - 마당 있는 주택
+indoor_without_yard: 실외 - 분리 거주 (마당 등)
+outdoor: 실내 - 마당 있는 주택</t>
+  </si>
+  <si>
+    <t>SET (@daily_walk)</t>
+  </si>
+  <si>
+    <t>once_a_day: 하루 1번
+twice_a_day: 하루 2번
+more_than_three_times_a_day: 하루 3번 이상
+not_every_day: 매일 하지는 않아요</t>
+  </si>
+  <si>
+    <t>SET (@ear_folded)</t>
+  </si>
+  <si>
+    <t>SET (@disease_treatment)</t>
+  </si>
+  <si>
+    <t>ongoing: 병원에 진단 및 처방에 따라 치료하고 있어요
+diagnosed_only: 병원에서 진단만 받았어요</t>
+  </si>
+  <si>
+    <t>male: 남자아이
+female: 여자아이</t>
   </si>
 </sst>
 </file>
@@ -2856,17 +2860,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4111223A-4AF6-0544-BC83-76B81098946D}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="4" max="4" width="126.5" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
     <col min="6" max="6" width="55.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" customWidth="1"/>
@@ -2885,13 +2889,13 @@
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -2905,13 +2909,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
@@ -2930,7 +2934,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2943,16 +2947,16 @@
         <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -2961,19 +2965,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -2982,16 +2986,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
@@ -3003,19 +3007,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
@@ -3026,19 +3030,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -3050,37 +3054,37 @@
         <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -3089,16 +3093,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
@@ -3108,16 +3112,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
@@ -3130,20 +3134,20 @@
         <v>75</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3151,16 +3155,16 @@
         <v>77</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>173</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -3172,37 +3176,37 @@
         <v>79</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -3214,16 +3218,16 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
@@ -3234,16 +3238,16 @@
         <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -3255,13 +3259,13 @@
         <v>83</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -3270,16 +3274,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -3291,16 +3295,16 @@
         <v>85</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -3312,16 +3316,16 @@
         <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -3333,16 +3337,16 @@
         <v>86</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -3354,16 +3358,16 @@
         <v>87</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -3381,7 +3385,7 @@
         <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="1"/>
@@ -3665,7 +3669,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -3730,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>56</v>
@@ -3750,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>59</v>
@@ -3806,7 +3810,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>63</v>
@@ -3824,7 +3828,7 @@
         <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>71</v>
@@ -3946,7 +3950,7 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>98</v>

--- a/PerpetHealthCheckIntro.xlsx
+++ b/PerpetHealthCheckIntro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpro/Dropbox/Equal/git-perdev-dev/equal-survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53FEEDC-CD38-C54B-B89E-28C895A8A105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6BE4D2-E3CB-6E47-A790-FFA44594437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25820" yWindow="1140" windowWidth="41540" windowHeight="21780" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
+    <workbookView xWindow="3880" yWindow="500" windowWidth="46980" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
   <si>
     <t>Question</t>
   </si>
@@ -2105,48 +2105,6 @@
     <t>WhyWeAsk</t>
   </si>
   <si>
-    <t>나이에 따라 필요한 영양소가 달라질 수 있으며 답변을 바탕으로 아이의 생애주기에 알맞은 영양성분을 추천합니다.</t>
-  </si>
-  <si>
-    <t>아이의 몸무게에 맞는 최적의 영양성분 복용량을 파악하는 데에 도움을 줍니다.</t>
-  </si>
-  <si>
-    <t>고양이의 귀가 접혀 있는 경우는 유전적 변이에 의한 것일 수 있습니다. 이는 아이에게 필요한 건강 관리 정보를 얻는 데에 도움을 줍니다.</t>
-  </si>
-  <si>
-    <t>성별과 관련된 신진대사와 같은 여러 요인에 따라 필요한 영양소가 달라질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>중성화 여부에 따라 신진대사와 호르몬 변화에 의해 필요한 영양소가 달라질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>진단받은 질병이나 증상에 대한 치료 정보를 바탕으로 권장되는 영양소의 종류와 함량이 달라질 수 있습니다.</t>
-  </si>
-  <si>
-    <t>연령, 활동 수준, 체형마다 기력 변화에 따른 권장 영양소가 다를 수 있습니다. 기력 변화는 아이의 건강을 이해하고 최적의 영양을 추천하는 데 도움이 됩니다.</t>
-  </si>
-  <si>
-    <t>식욕 변화는 건강 상태와 영양 섭취에 영향을 미치는 중요한 신호로 아이의 건강 상태를 이해하고, 올바른 영양 지원을 제공할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>사료의 양은 소화 기능, 영양 상태, 에너지 요구량을 이해하는 데 도움을 줍니다.</t>
-  </si>
-  <si>
-    <t>아이의 체내 수분 균형을 파악하는 데에 도움을 줍니다.</t>
-  </si>
-  <si>
-    <t>알레르기를 개선하고 관리하는 데 도움을 줍니다.</t>
-  </si>
-  <si>
-    <t>활동량에 따른 수분 공급과 추가적인 권장 영양 성분을 파악하는 데 도움을 줍니다.</t>
-  </si>
-  <si>
-    <t>아이의 사회적인 환경과 스트레스 관리를 고려한 맞춤 영양 성분을 추천할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>습도, 일조량, 바닥의 안정성 등 생활 환경이 아이의 건강에 미치는 영향을 이해하는 데에 도움을 줍니다.</t>
-  </si>
-  <si>
     <t>REDIRECT(http://127.0.0.1:7777/qualtrics)</t>
   </si>
   <si>
@@ -2187,13 +2145,7 @@
     <t>Search - Tags - Single</t>
   </si>
   <si>
-    <t>아이가 섭취하는 간식은 소화 기능, 영양 섭취 상태, 에너지 요구량과 관련이 있습니다.</t>
-  </si>
-  <si>
     <t>Multichoice - Single - Image</t>
-  </si>
-  <si>
-    <t>BCS(신체상태점수)는 반려동물의 체중과 체형을 평가하는 중요한 지표로 이를 통해 아이가 건강한 체중을 유지하고 있는지를 판단할 수 있습니다.</t>
   </si>
   <si>
     <t>SET (@gender)</t>
@@ -2212,36 +2164,10 @@
     <t>SET (@allergy_id[])</t>
   </si>
   <si>
-    <t>{@name}의 품종은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>{@name}의 몸무게는 몇 kg 인가요?</t>
-  </si>
-  <si>
-    <t>평소에 {@name}의 귀가 접혀있나요?</t>
-  </si>
-  <si>
-    <t>{@name}의 성별은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>{@name}의 체형은 다음 그림 중 어느 것과 가장 비슷한가요?</t>
-  </si>
-  <si>
-    <t>{@name}에게 사료는 얼마나 주시나요?</t>
-  </si>
-  <si>
-    <t>SET (@breeds_id)
-IF (@type==cat) THEN (GOTO: 6) ELSE (GOTO: 7)</t>
-  </si>
-  <si>
     <t>dog: 강아지
 cat: 고양이</t>
   </si>
   <si>
-    <t>APICALL(https://api.equal.pet/sign-service/v1/breeds?type={@type}&amp;limit=500)
-EXTRACT(data.content[*].(id, name))</t>
-  </si>
-  <si>
     <t>Multichoice - Single - Vertical</t>
   </si>
   <si>
@@ -2253,145 +2179,297 @@
 N: 아니요</t>
   </si>
   <si>
-    <t>불편하거나 아픈 부분 (중복 선택 가능)</t>
-  </si>
-  <si>
-    <t>아이에게 불편하거나 아픈 부분이 있나요?</t>
-  </si>
-  <si>
-    <t>알레르기 성택해주세요 (중복 선택 가능)</t>
-  </si>
-  <si>
-    <t>IF (#Y) THEN (GOTO: 11) ELSE (GOTO: 13)</t>
-  </si>
-  <si>
-    <t>IF (#Y) THEN (GOTO: 19)
-IF (@type==dog) THEN (GOTO: 21) ELSE (GOTO: 24)</t>
-  </si>
-  <si>
     <t>SET (@pet_type)</t>
   </si>
   <si>
-    <t>SET (@pet_name)</t>
-  </si>
-  <si>
     <t>SET (@body_weight)</t>
   </si>
   <si>
     <t>SET (@neutering_surgery)</t>
   </si>
   <si>
-    <t xml:space="preserve">performed: 네
-planned: 아니오. 하지만 할 예정이에요
-not_planned: 아니오. 앞으로도 계획이 없어요   </t>
-  </si>
-  <si>
     <t>SET(@body_shape)</t>
   </si>
   <si>
-    <t>underweight_severe: 저체중 - 많이 말랐어요 - IF(@type==cat) THEN IMG(bsc_cat01.imageset/bsc_cat01.png) ELSE IMG(bsc_dog01.imageset/bsc_dog01.png)
-underweight_slight: 약간 저체중 - 마른 편이에요 - IF(@type==cat) THEN IMG(bsc_cat02.imageset/bsc_cat02.png) ELSE IMG(bsc_dog02.imageset/bsc_dog02.png)
-normal: 정상 - 딱 보기 좋아요 - IF(@type==cat) THEN IMG(bsc_cat03.imageset/bsc_cat03.png) ELSE IMG(bsc_dog03.imageset/bsc_dog03.png)
-overweight_slight : 준비만 - 조금 통통해요 - IF(@type==cat) THEN IMG(bsc_cat04.imageset/bsc_cat04.png) ELSE IMG(bsc_dog04.imageset/bsc_dog04.png)
-obese_severe: 고도비만 - 뚱뚱해요 - IF(@type==cat) THEN IMG(bsc_cat05.imageset/bsc_cat05.png) ELSE IMG(bsc_dog05.imageset/bsc_dog05.png)</t>
-  </si>
-  <si>
     <t>SET (@energetic)</t>
   </si>
   <si>
-    <t>stable: 평소보다 활기차졌거나, 특별히 변화하지 않았어요
-slightly_decreased: 평소보다 조금 기운이 없어보여요
-significantly_decreased: 눈에 띄게 기력이 없어요</t>
-  </si>
-  <si>
     <t>SET (@appetite)</t>
   </si>
   <si>
-    <t>decreased: 줄었어요
-unchanged: 비슷해요
-increased: 늘었어요</t>
-  </si>
-  <si>
     <t>SET (@pet_food)</t>
   </si>
   <si>
-    <t>recommended_amount: 동물병원 추천 또는 포장지에 적힌 정량만 줘요
-more_than_recommended: 동물병원 추천 또는 포장지에 적힌 정량보다 더 줘요
-less_than_recommended: 체중 감량이 필요하지는 않지만 동물병원 추천 또는 포장지에 적힌 정량보다 덜 줘요
-less_for_weight_loss: 체중 감량이 필요한 것 같아서 일부러 적게 주고 있어요
-approximate_amount: 정량은 잘 모르지만 대략 정해서 주고 있어요
-self_regulated: 혼자 양을 조절해서 먹기 때문에 다 먹으면 채우고 있어서 잘 모르겠어요</t>
-  </si>
-  <si>
     <t>SET(@treat)</t>
   </si>
   <si>
-    <t>yes: 네
-no: 아니요</t>
-  </si>
-  <si>
     <t>SET (@water_intake)</t>
   </si>
   <si>
-    <t>low: 물을 잘 마시지 않는 것 같아요. 물그릇에 담긴 물이 잘 줄어들지 않아요
-normal: 물그릇에 있는 물을 잘 마시지만, 추가로 더 달라고 조르지는 않아요
-high: 물그릇에 있는 물을 다 마시고, 부족하면 더 달라고 졸라요
-excessive: 과하다 싶을 정도로 계속 물을 달라고 졸라요</t>
-  </si>
-  <si>
-    <t>diagnosed: 병원에서 진단을 받았어요.
-suspected: 병원에서 진단받은 적은 없지만, 의심되는 상황이 있었어요.</t>
-  </si>
-  <si>
-    <t>SET (@allergy_detect)
-IF (@type==dog) THEN (GOTO: 21) ELSE (GOTO: 24)</t>
-  </si>
-  <si>
     <t>SET (@multi_animal_environment)</t>
   </si>
   <si>
-    <t>no: 아니요.
-two_animal: 네, 2마리가 함께 살고 있어요.
-more_than_three_animal: 네, 3마리 이상이 함께 살고 있어요.</t>
-  </si>
-  <si>
     <t>SET (@living_space)</t>
   </si>
   <si>
-    <t>indoor_apartment: 실내 - 아파트, 빌라
-indoor_with_yard: 실내 - 마당 있는 주택
-indoor_without_yard: 실외 - 분리 거주 (마당 등)
-outdoor: 실내 - 마당 있는 주택</t>
-  </si>
-  <si>
     <t>SET (@daily_walk)</t>
   </si>
   <si>
-    <t>once_a_day: 하루 1번
-twice_a_day: 하루 2번
-more_than_three_times_a_day: 하루 3번 이상
-not_every_day: 매일 하지는 않아요</t>
-  </si>
-  <si>
     <t>SET (@ear_folded)</t>
   </si>
   <si>
     <t>SET (@disease_treatment)</t>
-  </si>
-  <si>
-    <t>ongoing: 병원에 진단 및 처방에 따라 치료하고 있어요
-diagnosed_only: 병원에서 진단만 받았어요</t>
   </si>
   <si>
     <t>male: 남자아이
 female: 여자아이</t>
+  </si>
+  <si>
+    <t>강아지인가요? 고양이인가요?</t>
+  </si>
+  <si>
+    <t>생애주기에 따라 필요한 영양소가 달라질 수 있어요.</t>
+  </si>
+  <si>
+    <t>최적의 영양소 복용량을 알 수 있어요.</t>
+  </si>
+  <si>
+    <t>품종에 따라 특정 유전 질환에 취약할 수 있어요.</t>
+  </si>
+  <si>
+    <t>BCS는 신체상태점수로, 체중과 체형을 평가하는 중요한 지표예요. 아이가 건강을 잘 유지하고 있는지 판단할 수 있어요. 이에 따라 필요한 영양소가 달라질 수 있어요.</t>
+  </si>
+  <si>
+    <t>불편하거나 아픈 부분을 모두 알려주세요.(중복 선택 가능)</t>
+  </si>
+  <si>
+    <t>진단 받은 질병을 치료하고 있나요?</t>
+  </si>
+  <si>
+    <r>
+      <t>알러지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>가 있나요?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>알러지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> 요인을 모두 알려주세요.(중복 선택 가능)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>알러지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>가 있는지 어떻게 알게 되었나요?</t>
+    </r>
+  </si>
+  <si>
+    <t>같이 사는 강아지나 고양이가 있나요?</t>
+  </si>
+  <si>
+    <t>귀가 접혀 있는 경우, 유전적 변이에 의한 것일 수 있어요.</t>
+  </si>
+  <si>
+    <t>성별에 따라 필요한 영양소가 달라질 수 있어요.</t>
+  </si>
+  <si>
+    <t>중성화 여부에 따라 신진대사와 호르몬 변화로 인해 필요한 영양소가 달라질 수 있어요.</t>
+  </si>
+  <si>
+    <t>증상 또는 질병에 따라 권장되는 성분을 알려 드려요.</t>
+  </si>
+  <si>
+    <t>증상 또는 질병에 대한 치료 정보를 바탕으로 권장되는 영양소의 종류와 함량이 달라질 수 있어요.</t>
+  </si>
+  <si>
+    <t>아이 현재 상태를 고려한 활동성 변화에 따라 최적의 영양소를 추천해요.</t>
+  </si>
+  <si>
+    <t>식욕 변화는 영양 섭취에 따른 건강에 영향을 미치는 중요한 신호예요. 아이의 건강 상태를 이해하고 올바른 영양 섭취를 지원할 수 있어요.</t>
+  </si>
+  <si>
+    <t>소화 기능, 에너지 요구량, 영양 섭취 상태를 이해할 수 있어요. 동물병원에서 추천 받았거나, 포장지에 적힌 정량을 기준으로 답해주세요.</t>
+  </si>
+  <si>
+    <t>소화 기능, 에너지 요구량, 영양 섭취 상태와 관련이 있어요.</t>
+  </si>
+  <si>
+    <t>체내 수분 균형을 알 수 있어요.</t>
+  </si>
+  <si>
+    <t>알러지 개선과 관리에 도움을 드릴게요.</t>
+  </si>
+  <si>
+    <t>적절한 수분 공급량과 권장 영양소를 알 수 있어요.</t>
+  </si>
+  <si>
+    <t>습도, 일조량, 바닥의 안정성 등 생활하는 환경이 아이의 건강에 미치는 영향을 이해할 수 있어요.</t>
+  </si>
+  <si>
+    <t>사회적 환경 및 스트레스를 고려해 영양소를 추천해요.</t>
+  </si>
+  <si>
+    <t>SET (@breeds_id)
+IF (@type==cat) THEN (GOTO: 5) ELSE (GOTO: 6)</t>
+  </si>
+  <si>
+    <t>IF (#Y) THEN (GOTO: 10) ELSE (GOTO: 12)</t>
+  </si>
+  <si>
+    <t>APICALL(https://api.equal.pet/sign-service/v1/breeds?type={@pet_type}&amp;limit=500)
+EXTRACT(data.content[*].(id, name))</t>
+  </si>
+  <si>
+    <t>{질병분야}: 병명을 모두 알려주세요.(선택)</t>
+  </si>
+  <si>
+    <t>APICALL(https://api.equal.pet/sign-service/v1/disease?main_ctgr_id={@disease_id})
+EXTRACT(data.content[*].(id,name))</t>
+  </si>
+  <si>
+    <t>SET (@sub_disease_id[])</t>
+  </si>
+  <si>
+    <t>SET (@allergy_detect)
+IF (@pet_type==dog) THEN (GOTO: 21) ELSE (GOTO: 23)</t>
+  </si>
+  <si>
+    <t>IF (#Y) THEN (GOTO: 19)
+ELIF (@pet_type==dog) THEN (GOTO: 21) ELSE (GOTO: 23)</t>
+  </si>
+  <si>
+    <t>no: 혼자 살아요.
+two_animal: 2마리가 함께 살아요.
+more_than_three_animal: 3마리 이상이 함께 살아요.</t>
+  </si>
+  <si>
+    <t>indoor_apartment: 아파트, 빌라
+indoor_with_yard: 마당 있는 주택에서 실내
+indoor_without_yard: 마당 없는 주택에서 실내
+outdoor: 마당 등 실외에서 분리 거주</t>
+  </si>
+  <si>
+    <t>once_a_day: 하루 한 번
+twice_a_day: 하루 두 번
+more_than_three_times_a_day: 하루 세 번 이상
+not_every_day: 매일 하기 어려워요.</t>
+  </si>
+  <si>
+    <t>diagnosed: 병원에서 진단을 받았어요.
+suspected: 진단 받지는 않았지만, 의심 중이에요.</t>
+  </si>
+  <si>
+    <t>low: 물을 줘도 잘 마시지 않아요.
+normal: 물을 준 만큼 마시고, 추가로 요구하지 않아요.
+high: 물을 준 만큼 마시고, 추가로 요구해요.
+excessive: 과할 정도로 물을 달라고 졸라요.</t>
+  </si>
+  <si>
+    <t>yes: 접혀 있음
+no: 접혀 있지 않음</t>
+  </si>
+  <si>
+    <t>performed: 네, 수술을 했어요.
+planned: 수술할 예정이에요.
+not_planned: 수술할 계획이 없어요.</t>
+  </si>
+  <si>
+    <t>underweight_severe: 많이 말랐어요. - IF(@pet_type==cat) THEN IMG(bsc_cat01.imageset/bsc_cat01.png) ELSE IMG(bsc_dog01.imageset/bsc_dog01.png)
+underweight_slight: 마른 편이에요. - IF(@pet_type==cat) THEN IMG(bsc_cat02.imageset/bsc_cat02.png) ELSE IMG(bsc_dog02.imageset/bsc_dog02.png)
+normal: 보기 좋아요. - IF(@pet_type==cat) THEN IMG(bsc_cat03.imageset/bsc_cat03.png) ELSE IMG(bsc_dog03.imageset/bsc_dog03.png)
+overweight_slight : 통통한 편이에요. - IF(@pet_type==cat) THEN IMG(bsc_cat04.imageset/bsc_cat04.png) ELSE IMG(bsc_dog04.imageset/bsc_dog04.png)
+obese_severe: 뚱뚱해요. - IF(@pet_type==cat) THEN IMG(bsc_cat05.imageset/bsc_cat05.png) ELSE IMG(bsc_dog05.imageset/bsc_dog05.png)</t>
+  </si>
+  <si>
+    <t>ongoing: 병원의 진단과 처방에 따라 치료 중이에요.
+diagnosed_only: 진단 후 치료하지 않았어요.</t>
+  </si>
+  <si>
+    <t>stable: 평소와 비슷하게 활기차요.
+slightly_decreased: 평소보다 기운이 조금 없어요.
+significantly_decreased: 눈에 띄게 기력이 없어요.</t>
+  </si>
+  <si>
+    <t>decreased: 평소보다 줄었어요.
+unchanged: 평소와 비슷해요.
+increased: 평소보다 늘었어요.</t>
+  </si>
+  <si>
+    <t>recommended_amount: 정량만 줘요.
+more_than_recommended: 정량보다 더 주는 편이에요.
+less_than_recommended: 체중은 적당하지만 정량보다 덜 줘요.
+less_for_weight_loss: 체중을 줄이려고 정량보다 덜 줘요.
+approximate_amount: 정량은 모르지만, 기준을 정해서 줘요.
+self_regulated: 기준이 없어서 잘 모르겠어요.</t>
+  </si>
+  <si>
+    <t>yes: 네, 먹어요.
+no: 먹지 않아요.</t>
+  </si>
+  <si>
+    <t>Y: 알러지가 있어요.
+N: 알러지가 없어요.</t>
+  </si>
+  <si>
+    <t>{@petname}은 언제 태어났나요?</t>
+  </si>
+  <si>
+    <t>{@petname}은 현재 몇 kg인가요?</t>
+  </si>
+  <si>
+    <t>{@petname}은 어떤 품종인가요?</t>
+  </si>
+  <si>
+    <t>{@petname}의 귀가 평소 접혀 있나요?</t>
+  </si>
+  <si>
+    <t>{@petname}의 성별은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>{@petname}은 중성화 수술을 했나요?</t>
+  </si>
+  <si>
+    <t>{@petname}의 몸은 아래 그림 중 어디에 가장 가까운가요?</t>
+  </si>
+  <si>
+    <t>{@petname}가 불편하거나 아픈 부분이 있나요?</t>
+  </si>
+  <si>
+    <t>최근 {@petname}의 활동성이 달라졌나요?</t>
+  </si>
+  <si>
+    <t>최근 {@petname의 식욕이 달라졌나요?</t>
+  </si>
+  <si>
+    <t>{@petname}에게 사료를 얼마나 주나요?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2459,6 +2537,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2486,7 +2581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2494,12 +2589,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2537,11 +2647,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2860,17 +2976,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4111223A-4AF6-0544-BC83-76B81098946D}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="126.5" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="68.6640625" customWidth="1"/>
+    <col min="5" max="5" width="59.5" customWidth="1"/>
     <col min="6" max="6" width="55.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" customWidth="1"/>
@@ -2878,7 +2994,7 @@
     <col min="10" max="10" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2901,316 +3017,317 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="35" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
+      <c r="B2" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>165</v>
+        <v>132</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="51" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
+      <c r="B3" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="E3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="52" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
+      <c r="B4" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="36" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>149</v>
+      <c r="B5" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="52" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" ht="39" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>179</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="56" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>151</v>
+      <c r="B8" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>117</v>
+        <v>138</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="137" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>62</v>
+      <c r="B9" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="35" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>152</v>
+      <c r="B10" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>142</v>
+        <v>177</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="38" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>161</v>
+      <c r="B11" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>130</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="34">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>160</v>
+      <c r="B12" t="s">
+        <v>179</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>75</v>
+      <c r="B13" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>192</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>119</v>
+        <v>149</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="60" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>77</v>
+      <c r="B14" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>120</v>
+        <v>140</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="50" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>79</v>
+      <c r="B15" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>121</v>
+        <v>141</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="99" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>153</v>
+      <c r="B16" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>169</v>
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="34">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3220,17 +3337,17 @@
       <c r="C17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>179</v>
+      <c r="D17" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="71" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3238,140 +3355,140 @@
         <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>123</v>
+        <v>144</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="51">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>83</v>
+      <c r="B19" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="34">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>162</v>
+      <c r="B20" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="51" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>85</v>
+      <c r="B21" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>124</v>
+      <c r="F21" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="68" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>125</v>
+        <v>147</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="68" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>86</v>
+      <c r="B23" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="54" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>87</v>
+      <c r="B24" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="17">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3385,26 +3502,26 @@
         <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="56" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3413,103 +3530,147 @@
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" s="7"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3525,8 +3686,9 @@
       <c r="E67" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3552,7 +3714,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3561,7 +3723,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3570,7 +3732,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3579,7 +3741,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3588,7 +3750,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3597,17 +3759,21 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="{@petName}의 성별은 무엇인가요?" xr:uid="{4FF3327D-C229-7947-BD3A-13A167306DAC}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{BF7EFC99-E31E-744D-8D14-7CBBC55E805B}"/>
-    <hyperlink ref="B16" r:id="rId3" display="{@petName}에게 사료는 얼마나 주시나요?" xr:uid="{78FA8FC7-5240-A447-B4B0-6FF1E7F15231}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{BD1AECDD-C6F7-2F42-926F-67F234E31D9C}"/>
-    <hyperlink ref="B10" r:id="rId5" display="{@petName}의 체형은 다음 그림 중 어느 것과 가장 비슷한가요?" xr:uid="{0A219EBE-0533-884B-AE61-52FD2842B4A5}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D3F20CE6-6507-7A4A-BF85-840C559688B0}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{3375451C-44D7-224A-A63E-2C898430F06D}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{5DF94552-C539-6D45-A966-5AB4ECE14290}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{25C51870-7350-2242-9DF9-92DDB6F4A055}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{E671D7D6-7354-9543-A60F-6CF484A2EBC0}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{BB653EDA-5D7D-1043-8E3A-677A38D23A0F}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{0A2C5AB1-6282-B545-889F-B99DA86F54FE}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{2EA0F521-68BF-0740-BFE0-6CB83884093F}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{D181E048-DFC0-CE46-851D-8F8F7F978F60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3622,7 +3788,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="41.33203125" customWidth="1"/>
@@ -3635,7 +3801,7 @@
     <col min="9" max="9" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3655,7 +3821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="34">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3669,13 +3835,13 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="34">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3691,7 +3857,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="34">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3707,7 +3873,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="34">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3723,7 +3889,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="15" customFormat="1" ht="34">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3734,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>56</v>
@@ -3743,7 +3909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="34">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3754,7 +3920,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>59</v>
@@ -3763,7 +3929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="34">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3781,7 +3947,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="51">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3799,7 +3965,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="18" customFormat="1" ht="34">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3810,14 +3976,14 @@
         <v>70</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="15" customFormat="1" ht="34">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3828,14 +3994,14 @@
         <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="34">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3853,7 +4019,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="68">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3871,7 +4037,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="51">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3889,7 +4055,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="98" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3907,7 +4073,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="12" customFormat="1" ht="34">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -3923,7 +4089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="68">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3941,7 +4107,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:8" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="15" customFormat="1" ht="34">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3950,14 +4116,14 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>98</v>
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="34">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3975,7 +4141,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="68">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3993,7 +4159,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="51">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4011,7 +4177,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="68">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4029,7 +4195,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -4039,186 +4205,186 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1">
       <c r="B28" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1">
       <c r="B29" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1">
       <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1">
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1">
       <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" hidden="1">
       <c r="B33" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" hidden="1">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" hidden="1">
       <c r="B35" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" hidden="1">
       <c r="B36" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" hidden="1">
       <c r="B37" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" hidden="1">
       <c r="B38" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" hidden="1">
       <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" hidden="1">
       <c r="B40" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" hidden="1">
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" hidden="1">
       <c r="B42" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" hidden="1">
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" hidden="1">
       <c r="B44" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" hidden="1">
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" hidden="1">
       <c r="B46" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" hidden="1">
       <c r="B47" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" hidden="1">
       <c r="B48" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" hidden="1">
       <c r="B49" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" hidden="1">
       <c r="B50" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" hidden="1">
       <c r="B51" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" hidden="1">
       <c r="B52" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" hidden="1">
       <c r="B53" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" hidden="1">
       <c r="B54" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" hidden="1">
       <c r="B55" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" hidden="1">
       <c r="B56" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" hidden="1">
       <c r="B57" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" hidden="1">
       <c r="B58" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" hidden="1">
       <c r="B59" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" hidden="1">
       <c r="B60" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="2:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" hidden="1"/>
+    <row r="62" spans="2:2" hidden="1"/>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -4235,7 +4401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -4252,7 +4418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4260,7 +4426,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4268,7 +4434,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4276,7 +4442,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4284,7 +4450,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4292,7 +4458,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4300,7 +4466,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>

--- a/PerpetHealthCheckIntro.xlsx
+++ b/PerpetHealthCheckIntro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpro/Dropbox/Equal/git-perdev-dev/equal-survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6BE4D2-E3CB-6E47-A790-FFA44594437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3796430A-B6E9-B942-AF6C-700265C43AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="500" windowWidth="46980" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
+    <workbookView xWindow="10480" yWindow="1320" windowWidth="46980" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="212">
   <si>
     <t>Question</t>
   </si>
@@ -2084,15 +2084,9 @@
 실내 - 마당 있는 주택</t>
   </si>
   <si>
-    <t>Thank You for this first phase</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statement    </t>
   </si>
   <si>
-    <t>Start Next Phase</t>
-  </si>
-  <si>
     <t>AnswerChoices</t>
   </si>
   <si>
@@ -2103,9 +2097,6 @@
   </si>
   <si>
     <t>WhyWeAsk</t>
-  </si>
-  <si>
-    <t>REDIRECT(http://127.0.0.1:7777/qualtrics)</t>
   </si>
   <si>
     <t xml:space="preserve">IF(#강아지) THEN SET(@petType=dog) ELSE SET(@petType=cat)
@@ -2330,13 +2321,6 @@
     <t>사회적 환경 및 스트레스를 고려해 영양소를 추천해요.</t>
   </si>
   <si>
-    <t>SET (@breeds_id)
-IF (@type==cat) THEN (GOTO: 5) ELSE (GOTO: 6)</t>
-  </si>
-  <si>
-    <t>IF (#Y) THEN (GOTO: 10) ELSE (GOTO: 12)</t>
-  </si>
-  <si>
     <t>APICALL(https://api.equal.pet/sign-service/v1/breeds?type={@pet_type}&amp;limit=500)
 EXTRACT(data.content[*].(id, name))</t>
   </si>
@@ -2353,10 +2337,6 @@
   <si>
     <t>SET (@allergy_detect)
 IF (@pet_type==dog) THEN (GOTO: 21) ELSE (GOTO: 23)</t>
-  </si>
-  <si>
-    <t>IF (#Y) THEN (GOTO: 19)
-ELIF (@pet_type==dog) THEN (GOTO: 21) ELSE (GOTO: 23)</t>
   </si>
   <si>
     <t>no: 혼자 살아요.
@@ -2459,10 +2439,40 @@
     <t>최근 {@petname}의 활동성이 달라졌나요?</t>
   </si>
   <si>
-    <t>최근 {@petname의 식욕이 달라졌나요?</t>
-  </si>
-  <si>
     <t>{@petname}에게 사료를 얼마나 주나요?</t>
+  </si>
+  <si>
+    <t>최근 {@petname}의 식욕이 달라졌나요?</t>
+  </si>
+  <si>
+    <t>{@petname} 등록 되었습니다.  HealthCheck 진행할까요?</t>
+  </si>
+  <si>
+    <t>감사합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDIRECT: home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF (#Y) THEN (GOTO: 26) ELSE (GOTO: 25)
+</t>
+  </si>
+  <si>
+    <t>REDIRECT: http://0.0.0.0:9090/questionnaire/Back_Questionnaire?user_id={user_id}&amp;access_token={access_token}&amp;pet_type={@pet_type}&amp;petname={@petname}&amp;gender={@gender}</t>
+  </si>
+  <si>
+    <t>SET (@breeds_id)
+IF (@pet_type==cat) THEN (GOTO: 5) ELSE (GOTO: 6)</t>
+  </si>
+  <si>
+    <t>IF (#Y) THEN (GOTO: 10) ELSE (GOTO: 13)</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>IF (@pet_type==dog) THEN (GOTO: 21) ELSE (GOTO: 23)
+IF (#Y) THEN (GOTO: 19)</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2658,6 +2668,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2974,10 +2993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4111223A-4AF6-0544-BC83-76B81098946D}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2985,16 +3004,16 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="64.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
+    <col min="4" max="4" width="62.5" customWidth="1"/>
+    <col min="5" max="5" width="106.83203125" customWidth="1"/>
     <col min="6" max="6" width="55.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="10" max="10" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3005,327 +3024,375 @@
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="35" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="35" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="51" customHeight="1">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="52" customHeight="1">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="52" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="36" customHeight="1">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="52" customHeight="1">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="52" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="39" customHeight="1">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="39" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="56" customHeight="1">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="56" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="137" customHeight="1">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="35" customHeight="1">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="38" customHeight="1">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="38" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="34">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="51">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="40" customHeight="1">
+        <v>176</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="60" customHeight="1">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="50" customHeight="1">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="50" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="99" customHeight="1">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="99" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G16" s="4"/>
+      <c r="H16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="34">
       <c r="A17" s="4">
@@ -3335,16 +3402,19 @@
         <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="71" customHeight="1">
@@ -3355,75 +3425,87 @@
         <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="51">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="34">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="F19" s="5"/>
+      <c r="H19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="34">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F20" s="5"/>
+      <c r="H20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="51" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G21" s="4"/>
+      <c r="H21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="68" customHeight="1">
       <c r="A22" s="4">
@@ -3433,18 +3515,21 @@
         <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G22" s="4"/>
+      <c r="H22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="68" customHeight="1">
       <c r="A23" s="4">
@@ -3454,152 +3539,192 @@
         <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G23" s="4"/>
+      <c r="H23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="54" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" ht="17">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="33" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="6"/>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="8"/>
-      <c r="F27" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="68">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="56" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+    <row r="30" spans="1:9">
+      <c r="B30" s="8"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="56" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="8"/>
+      <c r="B37" s="7"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="8"/>
+      <c r="B39" s="7"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="8"/>
+      <c r="B41" s="9"/>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="9"/>
+      <c r="B42" s="8"/>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="9"/>
+      <c r="B44" s="8"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="8"/>
+      <c r="B45" s="9"/>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="7"/>
+      <c r="B46" s="8"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="8"/>
+      <c r="B47" s="7"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="7"/>
+      <c r="B48" s="8"/>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="2:6">
@@ -3619,19 +3744,19 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="8"/>
+      <c r="B53" s="7"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="9"/>
+      <c r="B54" s="8"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="7"/>
+      <c r="B56" s="8"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="2:6">
@@ -3651,14 +3776,15 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="8"/>
+      <c r="B61" s="7"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="7"/>
+      <c r="B62" s="8"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="2:6">
+      <c r="B63" s="7"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="2:6">
@@ -3671,21 +3797,6 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:7">
@@ -3704,15 +3815,24 @@
       <c r="E68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1"/>
@@ -3762,6 +3882,15 @@
     <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3774,6 +3903,7 @@
     <hyperlink ref="B9" r:id="rId7" xr:uid="{0A2C5AB1-6282-B545-889F-B99DA86F54FE}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{2EA0F521-68BF-0740-BFE0-6CB83884093F}"/>
     <hyperlink ref="B16" r:id="rId9" xr:uid="{D181E048-DFC0-CE46-851D-8F8F7F978F60}"/>
+    <hyperlink ref="B25" r:id="rId10" xr:uid="{E386431D-641D-D547-8B33-3163D2926F9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3835,7 +3965,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -3900,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>56</v>
@@ -3920,7 +4050,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>59</v>
@@ -3976,7 +4106,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>63</v>
@@ -3994,7 +4124,7 @@
         <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>71</v>
@@ -4116,7 +4246,7 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>98</v>

--- a/PerpetHealthCheckIntro.xlsx
+++ b/PerpetHealthCheckIntro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpro/Dropbox/Equal/git-perdev-dev/equal-survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3796430A-B6E9-B942-AF6C-700265C43AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A452FC30-163C-1441-945A-165FDA3946F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="1320" windowWidth="46980" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
+    <workbookView xWindow="13460" yWindow="1760" windowWidth="33040" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2200,9 +2200,6 @@
     <t>SET (@multi_animal_environment)</t>
   </si>
   <si>
-    <t>SET (@living_space)</t>
-  </si>
-  <si>
     <t>SET (@daily_walk)</t>
   </si>
   <si>
@@ -2473,6 +2470,11 @@
   <si>
     <t>IF (@pet_type==dog) THEN (GOTO: 21) ELSE (GOTO: 23)
 IF (#Y) THEN (GOTO: 19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET (@living_space)
+IF (@pet_type==cat) THEN (GOTO: 23) ELSE (GOTO: 24)
+</t>
   </si>
 </sst>
 </file>
@@ -2995,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4111223A-4AF6-0544-BC83-76B81098946D}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3005,7 +3007,7 @@
     <col min="2" max="2" width="64.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
     <col min="4" max="4" width="62.5" customWidth="1"/>
-    <col min="5" max="5" width="106.83203125" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
     <col min="6" max="6" width="55.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
@@ -3036,7 +3038,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1">
@@ -3044,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>110</v>
@@ -3068,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>118</v>
@@ -3080,7 +3082,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3">
@@ -3092,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
@@ -3104,7 +3106,7 @@
         <v>134</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4">
@@ -3116,19 +3118,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5">
@@ -3140,19 +3142,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -3166,19 +3168,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7">
@@ -3190,19 +3192,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8">
@@ -3214,19 +3216,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9">
@@ -3238,7 +3240,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>110</v>
@@ -3247,10 +3249,10 @@
         <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10">
@@ -3262,7 +3264,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>121</v>
@@ -3283,16 +3285,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -3303,19 +3305,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13">
@@ -3327,19 +3329,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>137</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14">
@@ -3351,19 +3353,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15">
@@ -3375,19 +3377,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16">
@@ -3405,13 +3407,13 @@
         <v>110</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>140</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3428,13 +3430,13 @@
         <v>130</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>141</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18">
@@ -3446,16 +3448,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F19" s="5"/>
       <c r="H19">
@@ -3467,7 +3469,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>121</v>
@@ -3488,19 +3490,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21">
@@ -3518,13 +3520,13 @@
         <v>130</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22">
@@ -3542,13 +3544,13 @@
         <v>130</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23">
@@ -3560,19 +3562,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>142</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24">
@@ -3584,7 +3586,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>109</v>
@@ -3593,7 +3595,7 @@
         <v>132</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="6"/>
@@ -3606,13 +3608,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="1"/>
@@ -3626,13 +3628,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H27">
         <v>1</v>

--- a/PerpetHealthCheckIntro.xlsx
+++ b/PerpetHealthCheckIntro.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpro/Dropbox/Equal/git-perdev-dev/equal-survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A452FC30-163C-1441-945A-165FDA3946F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9649DA21-A14A-A142-81D8-8A0D60CDA620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="1760" windowWidth="33040" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
+    <workbookView xWindow="3120" yWindow="640" windowWidth="56380" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="211">
   <si>
     <t>Question</t>
   </si>
@@ -2216,21 +2217,6 @@
     <t>강아지인가요? 고양이인가요?</t>
   </si>
   <si>
-    <t>생애주기에 따라 필요한 영양소가 달라질 수 있어요.</t>
-  </si>
-  <si>
-    <t>최적의 영양소 복용량을 알 수 있어요.</t>
-  </si>
-  <si>
-    <t>품종에 따라 특정 유전 질환에 취약할 수 있어요.</t>
-  </si>
-  <si>
-    <t>BCS는 신체상태점수로, 체중과 체형을 평가하는 중요한 지표예요. 아이가 건강을 잘 유지하고 있는지 판단할 수 있어요. 이에 따라 필요한 영양소가 달라질 수 있어요.</t>
-  </si>
-  <si>
-    <t>불편하거나 아픈 부분을 모두 알려주세요.(중복 선택 가능)</t>
-  </si>
-  <si>
     <t>진단 받은 질병을 치료하고 있나요?</t>
   </si>
   <si>
@@ -2256,75 +2242,17 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
       </rPr>
-      <t xml:space="preserve"> 요인을 모두 알려주세요.(중복 선택 가능)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>알러지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
       <t>가 있는지 어떻게 알게 되었나요?</t>
     </r>
   </si>
   <si>
     <t>같이 사는 강아지나 고양이가 있나요?</t>
-  </si>
-  <si>
-    <t>귀가 접혀 있는 경우, 유전적 변이에 의한 것일 수 있어요.</t>
-  </si>
-  <si>
-    <t>성별에 따라 필요한 영양소가 달라질 수 있어요.</t>
-  </si>
-  <si>
-    <t>중성화 여부에 따라 신진대사와 호르몬 변화로 인해 필요한 영양소가 달라질 수 있어요.</t>
-  </si>
-  <si>
-    <t>증상 또는 질병에 따라 권장되는 성분을 알려 드려요.</t>
-  </si>
-  <si>
-    <t>증상 또는 질병에 대한 치료 정보를 바탕으로 권장되는 영양소의 종류와 함량이 달라질 수 있어요.</t>
-  </si>
-  <si>
-    <t>아이 현재 상태를 고려한 활동성 변화에 따라 최적의 영양소를 추천해요.</t>
-  </si>
-  <si>
-    <t>식욕 변화는 영양 섭취에 따른 건강에 영향을 미치는 중요한 신호예요. 아이의 건강 상태를 이해하고 올바른 영양 섭취를 지원할 수 있어요.</t>
-  </si>
-  <si>
-    <t>소화 기능, 에너지 요구량, 영양 섭취 상태를 이해할 수 있어요. 동물병원에서 추천 받았거나, 포장지에 적힌 정량을 기준으로 답해주세요.</t>
-  </si>
-  <si>
-    <t>소화 기능, 에너지 요구량, 영양 섭취 상태와 관련이 있어요.</t>
-  </si>
-  <si>
-    <t>체내 수분 균형을 알 수 있어요.</t>
-  </si>
-  <si>
-    <t>알러지 개선과 관리에 도움을 드릴게요.</t>
-  </si>
-  <si>
-    <t>적절한 수분 공급량과 권장 영양소를 알 수 있어요.</t>
-  </si>
-  <si>
-    <t>습도, 일조량, 바닥의 안정성 등 생활하는 환경이 아이의 건강에 미치는 영향을 이해할 수 있어요.</t>
-  </si>
-  <si>
-    <t>사회적 환경 및 스트레스를 고려해 영양소를 추천해요.</t>
   </si>
   <si>
     <t>APICALL(https://api.equal.pet/sign-service/v1/breeds?type={@pet_type}&amp;limit=500)
 EXTRACT(data.content[*].(id, name))</t>
   </si>
   <si>
-    <t>{질병분야}: 병명을 모두 알려주세요.(선택)</t>
-  </si>
-  <si>
     <t>APICALL(https://api.equal.pet/sign-service/v1/disease?main_ctgr_id={@disease_id})
 EXTRACT(data.content[*].(id,name))</t>
   </si>
@@ -2334,11 +2262,6 @@
   <si>
     <t>SET (@allergy_detect)
 IF (@pet_type==dog) THEN (GOTO: 21) ELSE (GOTO: 23)</t>
-  </si>
-  <si>
-    <t>no: 혼자 살아요.
-two_animal: 2마리가 함께 살아요.
-more_than_three_animal: 3마리 이상이 함께 살아요.</t>
   </si>
   <si>
     <t>indoor_apartment: 아파트, 빌라
@@ -2347,134 +2270,198 @@
 outdoor: 마당 등 실외에서 분리 거주</t>
   </si>
   <si>
+    <t>yes: 접혀 있음
+no: 접혀 있지 않음</t>
+  </si>
+  <si>
+    <t>{@petname}은 언제 태어났나요?</t>
+  </si>
+  <si>
+    <t>{@petname}은 현재 몇 kg인가요?</t>
+  </si>
+  <si>
+    <t>{@petname}은 어떤 품종인가요?</t>
+  </si>
+  <si>
+    <t>{@petname}의 귀가 평소 접혀 있나요?</t>
+  </si>
+  <si>
+    <t>{@petname}의 성별은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>{@petname}은 중성화 수술을 했나요?</t>
+  </si>
+  <si>
+    <t>{@petname}의 몸은 아래 그림 중 어디에 가장 가까운가요?</t>
+  </si>
+  <si>
+    <t>최근 {@petname}의 활동성이 달라졌나요?</t>
+  </si>
+  <si>
+    <t>{@petname}에게 사료를 얼마나 주나요?</t>
+  </si>
+  <si>
+    <t>최근 {@petname}의 식욕이 달라졌나요?</t>
+  </si>
+  <si>
+    <t>감사합니다</t>
+  </si>
+  <si>
+    <t>REDIRECT: http://0.0.0.0:9090/questionnaire/Back_Questionnaire?user_id={user_id}&amp;access_token={access_token}&amp;pet_type={@pet_type}&amp;petname={@petname}&amp;gender={@gender}</t>
+  </si>
+  <si>
+    <t>SET (@breeds_id)
+IF (@pet_type==cat) THEN (GOTO: 5) ELSE (GOTO: 6)</t>
+  </si>
+  <si>
+    <t>IF (#Y) THEN (GOTO: 10) ELSE (GOTO: 13)</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>IF (@pet_type==dog) THEN (GOTO: 21) ELSE (GOTO: 23)
+IF (#Y) THEN (GOTO: 19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET (@living_space)
+IF (@pet_type==cat) THEN (GOTO: 23) ELSE (GOTO: 24)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{@petname} 등록 되었습니다. </t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>생애주기에 따라 필요한 영양소가 달라질 수 있어요</t>
+  </si>
+  <si>
+    <t>최적의 영양소 복용량을 알 수 있어요</t>
+  </si>
+  <si>
+    <t>품종에 따라 특정 유전 질환에 취약할 수 있어요</t>
+  </si>
+  <si>
+    <t>귀가 접혀 있는 경우, 유전적 변이에 의한 것일 수 있어요</t>
+  </si>
+  <si>
+    <t>성별에 따라 필요한 영양소가 달라질 수 있어요</t>
+  </si>
+  <si>
+    <t>performed: 네, 수술을 했어요
+planned: 수술할 예정이에요
+not_planned: 수술할 계획이 없어요</t>
+  </si>
+  <si>
+    <t>중성화 여부에 따라 신진대사와 호르몬 변화로 인해 필요한 영양소가 달라질 수 있어요</t>
+  </si>
+  <si>
+    <t>underweight_severe: 많이 말랐어요 - IF(@pet_type==cat) THEN IMG(bsc_cat01.imageset/bsc_cat01.png) ELSE IMG(bsc_dog01.imageset/bsc_dog01.png)
+underweight_slight: 마른 편이에요 - IF(@pet_type==cat) THEN IMG(bsc_cat02.imageset/bsc_cat02.png) ELSE IMG(bsc_dog02.imageset/bsc_dog02.png)
+normal: 보기 좋아요 - IF(@pet_type==cat) THEN IMG(bsc_cat03.imageset/bsc_cat03.png) ELSE IMG(bsc_dog03.imageset/bsc_dog03.png)
+overweight_slight : 통통한 편이에요 - IF(@pet_type==cat) THEN IMG(bsc_cat04.imageset/bsc_cat04.png) ELSE IMG(bsc_dog04.imageset/bsc_dog04.png)
+obese_severe: 뚱뚱해요 - IF(@pet_type==cat) THEN IMG(bsc_cat05.imageset/bsc_cat05.png) ELSE IMG(bsc_dog05.imageset/bsc_dog05.png)</t>
+  </si>
+  <si>
+    <t>BCS는 신체상태점수로, 체중과 체형을 평가하는 중요한 지표예요 아이가 건강을 잘 유지하고 있는지 판단할 수 있어요 이에 따라 필요한 영양소가 달라질 수 있어요</t>
+  </si>
+  <si>
+    <t>증상 또는 질병에 따라 권장되는 성분을 알려 드려요</t>
+  </si>
+  <si>
+    <t>불편하거나 아픈 부분을 모두 알려주세요(중복 선택 가능)</t>
+  </si>
+  <si>
+    <t>{질병분야}: 병명을 모두 알려주세요(선택)</t>
+  </si>
+  <si>
+    <t>ongoing: 병원의 진단과 처방에 따라 치료 중이에요
+diagnosed_only: 진단 후 치료하지 않았어요</t>
+  </si>
+  <si>
+    <t>증상 또는 질병에 대한 치료 정보를 바탕으로 권장되는 영양소의 종류와 함량이 달라질 수 있어요</t>
+  </si>
+  <si>
+    <t>stable: 평소와 비슷하게 활기차요
+slightly_decreased: 평소보다 기운이 조금 없어요
+significantly_decreased: 눈에 띄게 기력이 없어요</t>
+  </si>
+  <si>
+    <t>아이 현재 상태를 고려한 활동성 변화에 따라 최적의 영양소를 추천해요</t>
+  </si>
+  <si>
+    <t>decreased: 평소보다 줄었어요
+unchanged: 평소와 비슷해요
+increased: 평소보다 늘었어요</t>
+  </si>
+  <si>
+    <t>식욕 변화는 영양 섭취에 따른 건강에 영향을 미치는 중요한 신호예요 아이의 건강 상태를 이해하고 올바른 영양 섭취를 지원할 수 있어요</t>
+  </si>
+  <si>
+    <t>recommended_amount: 정량만 줘요
+more_than_recommended: 정량보다 더 주는 편이에요
+less_than_recommended: 체중은 적당하지만 정량보다 덜 줘요
+less_for_weight_loss: 체중을 줄이려고 정량보다 덜 줘요
+approximate_amount: 정량은 모르지만, 기준을 정해서 줘요
+self_regulated: 기준이 없어서 잘 모르겠어요</t>
+  </si>
+  <si>
+    <t>소화 기능, 에너지 요구량, 영양 섭취 상태를 이해할 수 있어요 동물병원에서 추천 받았거나, 포장지에 적힌 정량을 기준으로 답해주세요</t>
+  </si>
+  <si>
+    <t>yes: 네, 먹어요
+no: 먹지 않아요</t>
+  </si>
+  <si>
+    <t>소화 기능, 에너지 요구량, 영양 섭취 상태와 관련이 있어요</t>
+  </si>
+  <si>
+    <t>low: 물을 줘도 잘 마시지 않아요
+normal: 물을 준 만큼 마시고, 추가로 요구하지 않아요
+high: 물을 준 만큼 마시고, 추가로 요구해요
+excessive: 과할 정도로 물을 달라고 졸라요</t>
+  </si>
+  <si>
+    <t>체내 수분 균형을 알 수 있어요</t>
+  </si>
+  <si>
+    <t>알러지 요인을 모두 알려주세요(중복 선택 가능)</t>
+  </si>
+  <si>
+    <t>diagnosed: 병원에서 진단을 받았어요
+suspected: 진단 받지는 않았지만, 의심 중이에요</t>
+  </si>
+  <si>
+    <t>알러지 개선과 관리에 도움을 드릴게요</t>
+  </si>
+  <si>
     <t>once_a_day: 하루 한 번
 twice_a_day: 하루 두 번
 more_than_three_times_a_day: 하루 세 번 이상
-not_every_day: 매일 하기 어려워요.</t>
-  </si>
-  <si>
-    <t>diagnosed: 병원에서 진단을 받았어요.
-suspected: 진단 받지는 않았지만, 의심 중이에요.</t>
-  </si>
-  <si>
-    <t>low: 물을 줘도 잘 마시지 않아요.
-normal: 물을 준 만큼 마시고, 추가로 요구하지 않아요.
-high: 물을 준 만큼 마시고, 추가로 요구해요.
-excessive: 과할 정도로 물을 달라고 졸라요.</t>
-  </si>
-  <si>
-    <t>yes: 접혀 있음
-no: 접혀 있지 않음</t>
-  </si>
-  <si>
-    <t>performed: 네, 수술을 했어요.
-planned: 수술할 예정이에요.
-not_planned: 수술할 계획이 없어요.</t>
-  </si>
-  <si>
-    <t>underweight_severe: 많이 말랐어요. - IF(@pet_type==cat) THEN IMG(bsc_cat01.imageset/bsc_cat01.png) ELSE IMG(bsc_dog01.imageset/bsc_dog01.png)
-underweight_slight: 마른 편이에요. - IF(@pet_type==cat) THEN IMG(bsc_cat02.imageset/bsc_cat02.png) ELSE IMG(bsc_dog02.imageset/bsc_dog02.png)
-normal: 보기 좋아요. - IF(@pet_type==cat) THEN IMG(bsc_cat03.imageset/bsc_cat03.png) ELSE IMG(bsc_dog03.imageset/bsc_dog03.png)
-overweight_slight : 통통한 편이에요. - IF(@pet_type==cat) THEN IMG(bsc_cat04.imageset/bsc_cat04.png) ELSE IMG(bsc_dog04.imageset/bsc_dog04.png)
-obese_severe: 뚱뚱해요. - IF(@pet_type==cat) THEN IMG(bsc_cat05.imageset/bsc_cat05.png) ELSE IMG(bsc_dog05.imageset/bsc_dog05.png)</t>
-  </si>
-  <si>
-    <t>ongoing: 병원의 진단과 처방에 따라 치료 중이에요.
-diagnosed_only: 진단 후 치료하지 않았어요.</t>
-  </si>
-  <si>
-    <t>stable: 평소와 비슷하게 활기차요.
-slightly_decreased: 평소보다 기운이 조금 없어요.
-significantly_decreased: 눈에 띄게 기력이 없어요.</t>
-  </si>
-  <si>
-    <t>decreased: 평소보다 줄었어요.
-unchanged: 평소와 비슷해요.
-increased: 평소보다 늘었어요.</t>
-  </si>
-  <si>
-    <t>recommended_amount: 정량만 줘요.
-more_than_recommended: 정량보다 더 주는 편이에요.
-less_than_recommended: 체중은 적당하지만 정량보다 덜 줘요.
-less_for_weight_loss: 체중을 줄이려고 정량보다 덜 줘요.
-approximate_amount: 정량은 모르지만, 기준을 정해서 줘요.
-self_regulated: 기준이 없어서 잘 모르겠어요.</t>
-  </si>
-  <si>
-    <t>yes: 네, 먹어요.
-no: 먹지 않아요.</t>
-  </si>
-  <si>
-    <t>Y: 알러지가 있어요.
-N: 알러지가 없어요.</t>
-  </si>
-  <si>
-    <t>{@petname}은 언제 태어났나요?</t>
-  </si>
-  <si>
-    <t>{@petname}은 현재 몇 kg인가요?</t>
-  </si>
-  <si>
-    <t>{@petname}은 어떤 품종인가요?</t>
-  </si>
-  <si>
-    <t>{@petname}의 귀가 평소 접혀 있나요?</t>
-  </si>
-  <si>
-    <t>{@petname}의 성별은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>{@petname}은 중성화 수술을 했나요?</t>
-  </si>
-  <si>
-    <t>{@petname}의 몸은 아래 그림 중 어디에 가장 가까운가요?</t>
-  </si>
-  <si>
-    <t>{@petname}가 불편하거나 아픈 부분이 있나요?</t>
-  </si>
-  <si>
-    <t>최근 {@petname}의 활동성이 달라졌나요?</t>
-  </si>
-  <si>
-    <t>{@petname}에게 사료를 얼마나 주나요?</t>
-  </si>
-  <si>
-    <t>최근 {@petname}의 식욕이 달라졌나요?</t>
-  </si>
-  <si>
-    <t>{@petname} 등록 되었습니다.  HealthCheck 진행할까요?</t>
-  </si>
-  <si>
-    <t>감사합니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDIRECT: home </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF (#Y) THEN (GOTO: 26) ELSE (GOTO: 25)
-</t>
-  </si>
-  <si>
-    <t>REDIRECT: http://0.0.0.0:9090/questionnaire/Back_Questionnaire?user_id={user_id}&amp;access_token={access_token}&amp;pet_type={@pet_type}&amp;petname={@petname}&amp;gender={@gender}</t>
-  </si>
-  <si>
-    <t>SET (@breeds_id)
-IF (@pet_type==cat) THEN (GOTO: 5) ELSE (GOTO: 6)</t>
-  </si>
-  <si>
-    <t>IF (#Y) THEN (GOTO: 10) ELSE (GOTO: 13)</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>IF (@pet_type==dog) THEN (GOTO: 21) ELSE (GOTO: 23)
-IF (#Y) THEN (GOTO: 19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET (@living_space)
-IF (@pet_type==cat) THEN (GOTO: 23) ELSE (GOTO: 24)
-</t>
+not_every_day: 매일 하기 어려워요</t>
+  </si>
+  <si>
+    <t>적절한 수분 공급량과 권장 영양소를 알 수 있어요</t>
+  </si>
+  <si>
+    <t>습도, 일조량, 바닥의 안정성 등 생활하는 환경이 아이의 건강에 미치는 영향을 이해할 수 있어요</t>
+  </si>
+  <si>
+    <t>no: 혼자 살아요
+two_animal: 2마리가 함께 살아요
+more_than_three_animal: 3마리 이상이 함께 살아요</t>
+  </si>
+  <si>
+    <t>사회적 환경 및 스트레스를 고려해 영양소를 추천해요</t>
+  </si>
+  <si>
+    <t>Y: 있어요
+N: 없어요</t>
+  </si>
+  <si>
+    <t>{@petname}이 불편하거나 아픈 부분이 있나요?</t>
   </si>
 </sst>
 </file>
@@ -2995,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4111223A-4AF6-0544-BC83-76B81098946D}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3006,10 +2993,10 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="64.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="62.5" customWidth="1"/>
+    <col min="4" max="4" width="147.5" customWidth="1"/>
     <col min="5" max="5" width="60.6640625" customWidth="1"/>
     <col min="6" max="6" width="55.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="10" max="10" width="42.33203125" customWidth="1"/>
@@ -3038,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1">
@@ -3070,7 +3057,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>118</v>
@@ -3082,7 +3069,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3">
@@ -3094,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
@@ -3106,7 +3093,7 @@
         <v>134</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4">
@@ -3118,19 +3105,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5">
@@ -3142,19 +3129,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -3168,7 +3155,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>109</v>
@@ -3180,7 +3167,7 @@
         <v>124</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7">
@@ -3192,31 +3179,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="57" customHeight="1">
+    <row r="9" spans="1:8" ht="88" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>123</v>
@@ -3228,7 +3215,7 @@
         <v>136</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9">
@@ -3240,7 +3227,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>110</v>
@@ -3249,10 +3236,10 @@
         <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10">
@@ -3264,7 +3251,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>121</v>
@@ -3285,16 +3272,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -3305,19 +3292,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>145</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13">
@@ -3329,19 +3316,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>137</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14">
@@ -3353,19 +3340,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15">
@@ -3377,26 +3364,26 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="34">
+    <row r="17" spans="1:8" ht="34">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3407,19 +3394,19 @@
         <v>110</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>140</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="71" customHeight="1">
+    <row r="18" spans="1:8" ht="71" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3430,46 +3417,46 @@
         <v>130</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>141</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="34">
+    <row r="19" spans="1:8" ht="34">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="F19" s="5"/>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="34">
+    <row r="20" spans="1:8" ht="34">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>121</v>
@@ -3485,31 +3472,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="51" customHeight="1">
+    <row r="21" spans="1:8" ht="51" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="68" customHeight="1">
+    <row r="22" spans="1:8" ht="68" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3520,20 +3507,20 @@
         <v>130</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>143</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="68" customHeight="1">
+    <row r="23" spans="1:8" ht="68" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3544,189 +3531,169 @@
         <v>130</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="54" customHeight="1">
+    <row r="24" spans="1:8" ht="54" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>142</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33" customHeight="1">
+    <row r="25" spans="1:8" ht="33" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>205</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="23"/>
       <c r="G25" s="6"/>
       <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17">
+    <row r="26" spans="1:8" ht="68">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
+        <v>169</v>
+      </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="68">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="8"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="7"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="7"/>
+    <row r="29" spans="1:8">
+      <c r="B29" s="8"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="8"/>
+    <row r="30" spans="1:8" ht="56" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="56" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="8"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="7"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="7"/>
+      <c r="B33" s="8"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="8"/>
+      <c r="B34" s="7"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="7"/>
+      <c r="B35" s="8"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="8"/>
+      <c r="B36" s="7"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="8"/>
+      <c r="B38" s="7"/>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="7"/>
+      <c r="B39" s="8"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="9"/>
+      <c r="B41" s="8"/>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="9"/>
+      <c r="B43" s="8"/>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="8"/>
+      <c r="B44" s="9"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="9"/>
+      <c r="B45" s="8"/>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="8"/>
+      <c r="B46" s="7"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="8"/>
+      <c r="B48" s="7"/>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="2:6">
@@ -3746,19 +3713,19 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="7"/>
+      <c r="B53" s="8"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="9"/>
+      <c r="B55" s="8"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="8"/>
+      <c r="B56" s="7"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="2:6">
@@ -3778,15 +3745,14 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="7"/>
+      <c r="B61" s="8"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="8"/>
+      <c r="B62" s="7"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="7"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="2:6">
@@ -3799,6 +3765,21 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:7">
@@ -3817,24 +3798,15 @@
       <c r="E68" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1"/>
@@ -3884,15 +3856,6 @@
     <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PerpetHealthCheckIntro.xlsx
+++ b/PerpetHealthCheckIntro.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpro/Dropbox/Equal/git-perdev-dev/equal-survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9649DA21-A14A-A142-81D8-8A0D60CDA620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4ACFA2-946A-5A46-A716-09F273688927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="640" windowWidth="56380" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
+    <workbookView xWindow="25280" yWindow="800" windowWidth="54400" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2150,9 +2149,6 @@
 EXTRACT(data.content[*].(id,name))</t>
   </si>
   <si>
-    <t>SET (@disease_id)</t>
-  </si>
-  <si>
     <t>SET (@allergy_id[])</t>
   </si>
   <si>
@@ -2335,140 +2331,144 @@
     <t>Statement</t>
   </si>
   <si>
-    <t>생애주기에 따라 필요한 영양소가 달라질 수 있어요</t>
-  </si>
-  <si>
-    <t>최적의 영양소 복용량을 알 수 있어요</t>
-  </si>
-  <si>
-    <t>품종에 따라 특정 유전 질환에 취약할 수 있어요</t>
-  </si>
-  <si>
-    <t>귀가 접혀 있는 경우, 유전적 변이에 의한 것일 수 있어요</t>
-  </si>
-  <si>
-    <t>성별에 따라 필요한 영양소가 달라질 수 있어요</t>
-  </si>
-  <si>
-    <t>performed: 네, 수술을 했어요
-planned: 수술할 예정이에요
-not_planned: 수술할 계획이 없어요</t>
-  </si>
-  <si>
-    <t>중성화 여부에 따라 신진대사와 호르몬 변화로 인해 필요한 영양소가 달라질 수 있어요</t>
-  </si>
-  <si>
-    <t>underweight_severe: 많이 말랐어요 - IF(@pet_type==cat) THEN IMG(bsc_cat01.imageset/bsc_cat01.png) ELSE IMG(bsc_dog01.imageset/bsc_dog01.png)
-underweight_slight: 마른 편이에요 - IF(@pet_type==cat) THEN IMG(bsc_cat02.imageset/bsc_cat02.png) ELSE IMG(bsc_dog02.imageset/bsc_dog02.png)
-normal: 보기 좋아요 - IF(@pet_type==cat) THEN IMG(bsc_cat03.imageset/bsc_cat03.png) ELSE IMG(bsc_dog03.imageset/bsc_dog03.png)
-overweight_slight : 통통한 편이에요 - IF(@pet_type==cat) THEN IMG(bsc_cat04.imageset/bsc_cat04.png) ELSE IMG(bsc_dog04.imageset/bsc_dog04.png)
-obese_severe: 뚱뚱해요 - IF(@pet_type==cat) THEN IMG(bsc_cat05.imageset/bsc_cat05.png) ELSE IMG(bsc_dog05.imageset/bsc_dog05.png)</t>
-  </si>
-  <si>
-    <t>BCS는 신체상태점수로, 체중과 체형을 평가하는 중요한 지표예요 아이가 건강을 잘 유지하고 있는지 판단할 수 있어요 이에 따라 필요한 영양소가 달라질 수 있어요</t>
-  </si>
-  <si>
-    <t>증상 또는 질병에 따라 권장되는 성분을 알려 드려요</t>
-  </si>
-  <si>
     <t>불편하거나 아픈 부분을 모두 알려주세요(중복 선택 가능)</t>
   </si>
   <si>
     <t>{질병분야}: 병명을 모두 알려주세요(선택)</t>
   </si>
   <si>
-    <t>ongoing: 병원의 진단과 처방에 따라 치료 중이에요
-diagnosed_only: 진단 후 치료하지 않았어요</t>
-  </si>
-  <si>
-    <t>증상 또는 질병에 대한 치료 정보를 바탕으로 권장되는 영양소의 종류와 함량이 달라질 수 있어요</t>
-  </si>
-  <si>
-    <t>stable: 평소와 비슷하게 활기차요
-slightly_decreased: 평소보다 기운이 조금 없어요
-significantly_decreased: 눈에 띄게 기력이 없어요</t>
-  </si>
-  <si>
-    <t>아이 현재 상태를 고려한 활동성 변화에 따라 최적의 영양소를 추천해요</t>
-  </si>
-  <si>
-    <t>decreased: 평소보다 줄었어요
-unchanged: 평소와 비슷해요
-increased: 평소보다 늘었어요</t>
-  </si>
-  <si>
-    <t>식욕 변화는 영양 섭취에 따른 건강에 영향을 미치는 중요한 신호예요 아이의 건강 상태를 이해하고 올바른 영양 섭취를 지원할 수 있어요</t>
-  </si>
-  <si>
-    <t>recommended_amount: 정량만 줘요
-more_than_recommended: 정량보다 더 주는 편이에요
-less_than_recommended: 체중은 적당하지만 정량보다 덜 줘요
-less_for_weight_loss: 체중을 줄이려고 정량보다 덜 줘요
-approximate_amount: 정량은 모르지만, 기준을 정해서 줘요
-self_regulated: 기준이 없어서 잘 모르겠어요</t>
-  </si>
-  <si>
-    <t>소화 기능, 에너지 요구량, 영양 섭취 상태를 이해할 수 있어요 동물병원에서 추천 받았거나, 포장지에 적힌 정량을 기준으로 답해주세요</t>
-  </si>
-  <si>
-    <t>yes: 네, 먹어요
-no: 먹지 않아요</t>
-  </si>
-  <si>
-    <t>소화 기능, 에너지 요구량, 영양 섭취 상태와 관련이 있어요</t>
-  </si>
-  <si>
-    <t>low: 물을 줘도 잘 마시지 않아요
-normal: 물을 준 만큼 마시고, 추가로 요구하지 않아요
-high: 물을 준 만큼 마시고, 추가로 요구해요
-excessive: 과할 정도로 물을 달라고 졸라요</t>
-  </si>
-  <si>
-    <t>체내 수분 균형을 알 수 있어요</t>
-  </si>
-  <si>
     <t>알러지 요인을 모두 알려주세요(중복 선택 가능)</t>
   </si>
   <si>
-    <t>diagnosed: 병원에서 진단을 받았어요
-suspected: 진단 받지는 않았지만, 의심 중이에요</t>
-  </si>
-  <si>
-    <t>알러지 개선과 관리에 도움을 드릴게요</t>
+    <t>{@petname}이 불편하거나 아픈 부분이 있나요?</t>
+  </si>
+  <si>
+    <t>SET (@disease_id)
+IF(@disease_id==true) THEN (GOTO: 12) ELSE (GOTO: 12)</t>
+  </si>
+  <si>
+    <t>생애주기에 따라 필요한 영양소가 달라질 수 있어요.</t>
+  </si>
+  <si>
+    <t>최적의 영양소 복용량을 알 수 있어요.</t>
+  </si>
+  <si>
+    <t>품종에 따라 특정 유전 질환에 취약할 수 있어요.</t>
+  </si>
+  <si>
+    <t>귀가 접혀 있는 경우, 유전적 변이에 의한 것일 수 있어요.</t>
+  </si>
+  <si>
+    <t>성별에 따라 필요한 영양소가 달라질 수 있어요.</t>
+  </si>
+  <si>
+    <t>중성화 여부에 따라 신진대사와 호르몬 변화로 인해 필요한 영양소가 달라질 수 있어요.</t>
+  </si>
+  <si>
+    <t>BCS는 신체상태점수로, 체중과 체형을 평가하는 중요한 지표예요 아이가 건강을 잘 유지하고 있는지 판단할 수 있어요 이에 따라 필요한 영양소가 달라질 수 있어요.</t>
+  </si>
+  <si>
+    <t>증상 또는 질병에 따라 권장되는 성분을 알려 드려요.</t>
+  </si>
+  <si>
+    <t>증상 또는 질병에 대한 치료 정보를 바탕으로 권장되는 영양소의 종류와 함량이 달라질 수 있어요.</t>
+  </si>
+  <si>
+    <t>아이 현재 상태를 고려한 활동성 변화에 따라 최적의 영양소를 추천해요.</t>
+  </si>
+  <si>
+    <t>소화 기능, 에너지 요구량, 영양 섭취 상태를 이해할 수 있어요 동물병원에서 추천 받았거나, 포장지에 적힌 정량을 기준으로 답해주세요.</t>
+  </si>
+  <si>
+    <t>식욕 변화는 영양 섭취에 따른 건강에 영향을 미치는 중요한 신호예요 아이의 건강 상태를 이해하고 올바른 영양 섭취를 지원할 수 있어요.</t>
+  </si>
+  <si>
+    <t>소화 기능, 에너지 요구량, 영양 섭취 상태와 관련이 있어요.</t>
+  </si>
+  <si>
+    <t>체내 수분 균형을 알 수 있어요.</t>
+  </si>
+  <si>
+    <t>알러지 개선과 관리에 도움을 드릴게요.</t>
+  </si>
+  <si>
+    <t>적절한 수분 공급량과 권장 영양소를 알 수 있어요.</t>
+  </si>
+  <si>
+    <t>습도, 일조량, 바닥의 안정성 등 생활하는 환경이 아이의 건강에 미치는 영향을 이해할 수 있어요.</t>
+  </si>
+  <si>
+    <t>사회적 환경 및 스트레스를 고려해 영양소를 추천해요.</t>
+  </si>
+  <si>
+    <t>performed: 네, 수술을 했어요.
+planned: 수술할 예정이에요.
+not_planned: 수술할 계획이 없어요.</t>
+  </si>
+  <si>
+    <t>underweight_severe: 많이 말랐어요. - IF(@pet_type==cat) THEN IMG(bsc_cat01.imageset/bsc_cat01.png) ELSE IMG(bsc_dog01.imageset/bsc_dog01.png)
+underweight_slight: 마른 편이에요. - IF(@pet_type==cat) THEN IMG(bsc_cat02.imageset/bsc_cat02.png) ELSE IMG(bsc_dog02.imageset/bsc_dog02.png)
+normal: 보기 좋아요. - IF(@pet_type==cat) THEN IMG(bsc_cat03.imageset/bsc_cat03.png) ELSE IMG(bsc_dog03.imageset/bsc_dog03.png)
+overweight_slight : 통통한 편이에요. - IF(@pet_type==cat) THEN IMG(bsc_cat04.imageset/bsc_cat04.png) ELSE IMG(bsc_dog04.imageset/bsc_dog04.png)
+obese_severe: 뚱뚱해요. - IF(@pet_type==cat) THEN IMG(bsc_cat05.imageset/bsc_cat05.png) ELSE IMG(bsc_dog05.imageset/bsc_dog05.png)</t>
+  </si>
+  <si>
+    <t>ongoing: 병원의 진단과 처방에 따라 치료 중이에요.
+diagnosed_only: 진단 후 치료하지 않았어요.</t>
+  </si>
+  <si>
+    <t>stable: 평소와 비슷하게 활기차요.
+slightly_decreased: 평소보다 기운이 조금 없어요.
+significantly_decreased: 눈에 띄게 기력이 없어요.</t>
+  </si>
+  <si>
+    <t>decreased: 평소보다 줄었어요.
+unchanged: 평소와 비슷해요.
+increased: 평소보다 늘었어요.</t>
+  </si>
+  <si>
+    <t>recommended_amount: 정량만 줘요.
+more_than_recommended: 정량보다 더 주는 편이에요.
+less_than_recommended: 체중은 적당하지만 정량보다 덜 줘요.
+less_for_weight_loss: 체중을 줄이려고 정량보다 덜 줘요.
+approximate_amount: 정량은 모르지만, 기준을 정해서 줘요.
+self_regulated: 기준이 없어서 잘 모르겠어요.</t>
+  </si>
+  <si>
+    <t>yes: 네, 먹어요.
+no: 먹지 않아요.</t>
+  </si>
+  <si>
+    <t>low: 물을 줘도 잘 마시지 않아요.
+normal: 물을 준 만큼 마시고, 추가로 요구하지 않아요.
+high: 물을 준 만큼 마시고, 추가로 요구해요.
+excessive: 과할 정도로 물을 달라고 졸라요.</t>
+  </si>
+  <si>
+    <t>Y: 있어요.
+N: 없어요.</t>
+  </si>
+  <si>
+    <t>diagnosed: 병원에서 진단을 받았어요.
+suspected: 진단 받지는 않았지만, 의심 중이에요.</t>
+  </si>
+  <si>
+    <t>no: 혼자 살아요.
+two_animal: 2마리가 함께 살아요.
+more_than_three_animal: 3마리 이상이 함께 살아요.</t>
   </si>
   <si>
     <t>once_a_day: 하루 한 번
 twice_a_day: 하루 두 번
 more_than_three_times_a_day: 하루 세 번 이상
-not_every_day: 매일 하기 어려워요</t>
-  </si>
-  <si>
-    <t>적절한 수분 공급량과 권장 영양소를 알 수 있어요</t>
-  </si>
-  <si>
-    <t>습도, 일조량, 바닥의 안정성 등 생활하는 환경이 아이의 건강에 미치는 영향을 이해할 수 있어요</t>
-  </si>
-  <si>
-    <t>no: 혼자 살아요
-two_animal: 2마리가 함께 살아요
-more_than_three_animal: 3마리 이상이 함께 살아요</t>
-  </si>
-  <si>
-    <t>사회적 환경 및 스트레스를 고려해 영양소를 추천해요</t>
-  </si>
-  <si>
-    <t>Y: 있어요
-N: 없어요</t>
-  </si>
-  <si>
-    <t>{@petname}이 불편하거나 아픈 부분이 있나요?</t>
+not_every_day: 매일 하기 어려워요.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2553,6 +2553,14 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <u val="double"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2608,7 +2616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2666,6 +2674,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2984,18 +2999,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4111223A-4AF6-0544-BC83-76B81098946D}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="64.83203125" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="147.5" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
-    <col min="6" max="6" width="55.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="131" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="153.83203125" customWidth="1"/>
     <col min="7" max="7" width="34.33203125" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
@@ -3025,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1">
@@ -3033,16 +3048,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
@@ -3057,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>118</v>
@@ -3069,7 +3084,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3">
@@ -3081,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
@@ -3090,10 +3105,10 @@
         <v>120</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4">
@@ -3105,19 +3120,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5">
@@ -3129,19 +3144,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -3155,19 +3170,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7">
@@ -3179,19 +3194,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8">
@@ -3203,19 +3218,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9">
@@ -3227,19 +3242,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10">
@@ -3251,7 +3266,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>121</v>
@@ -3260,30 +3275,30 @@
         <v>126</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="51">
-      <c r="A12" s="4">
+    <row r="12" spans="1:8" s="27" customFormat="1" ht="34">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12">
+      <c r="H12" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3292,19 +3307,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>189</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>190</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13">
@@ -3316,19 +3331,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14">
@@ -3340,19 +3355,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15">
@@ -3364,19 +3379,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16">
@@ -3394,13 +3409,13 @@
         <v>110</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3414,16 +3429,16 @@
         <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18">
@@ -3435,16 +3450,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" s="5"/>
       <c r="H19">
@@ -3456,16 +3471,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="5"/>
       <c r="H20">
@@ -3477,19 +3492,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21">
@@ -3504,16 +3519,16 @@
         <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22">
@@ -3528,16 +3543,16 @@
         <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23">
@@ -3549,19 +3564,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24">
@@ -3573,10 +3588,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="25"/>
@@ -3586,18 +3601,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="68">
+    <row r="26" spans="1:8" ht="51">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26">
         <v>1</v>

--- a/PerpetHealthCheckIntro.xlsx
+++ b/PerpetHealthCheckIntro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpro/Dropbox/Equal/git-perdev-dev/equal-survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4ACFA2-946A-5A46-A716-09F273688927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC7D41E-1A73-F142-B0BE-8B79A47FD211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25280" yWindow="800" windowWidth="54400" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
+    <workbookView xWindow="11080" yWindow="2840" windowWidth="46200" windowHeight="25960" xr2:uid="{898366AA-613E-A547-9ABE-3031ABE0E9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2999,16 +2999,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4111223A-4AF6-0544-BC83-76B81098946D}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="64.83203125" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="131" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="130" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="153.83203125" customWidth="1"/>
     <col min="7" max="7" width="34.33203125" customWidth="1"/>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="88" customHeight="1">
+    <row r="9" spans="1:8" ht="96" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
